--- a/설계/포커스리더 프로젝트 매니저 DB설계V_04.xlsx
+++ b/설계/포커스리더 프로젝트 매니저 DB설계V_04.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djrl0\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djrl0\OneDrive\바탕 화면\프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67165E8A-1CB9-4606-BCFF-AD91BFB2378D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC0B285F-6798-40D2-9B27-61D06F1D849F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36075" yWindow="45" windowWidth="21600" windowHeight="11340" firstSheet="1" activeTab="5" xr2:uid="{FD4732AD-A8E9-4B40-97D9-1D21EEA29345}"/>
+    <workbookView xWindow="-23148" yWindow="984" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="6" xr2:uid="{FD4732AD-A8E9-4B40-97D9-1D21EEA29345}"/>
   </bookViews>
   <sheets>
     <sheet name="공통코드 테이블" sheetId="1" r:id="rId1"/>
     <sheet name="공통직원관리 테이블" sheetId="6" r:id="rId2"/>
     <sheet name="공통프로젝트 테이블" sheetId="7" r:id="rId3"/>
-    <sheet name="직원" sheetId="2" r:id="rId4"/>
-    <sheet name="프로젝트 일정관리" sheetId="3" r:id="rId5"/>
-    <sheet name="직원 계정관리" sheetId="5" r:id="rId6"/>
+    <sheet name="직원 계정관리" sheetId="5" r:id="rId4"/>
+    <sheet name="직원" sheetId="2" r:id="rId5"/>
+    <sheet name="프로젝트 일정관리" sheetId="3" r:id="rId6"/>
     <sheet name="프로젝트 인력관리" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="133">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -223,18 +223,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PJT_DEPT_C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부서코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재는 사용안함 규모커지면 사용할 예정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PJT_LV_C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -251,10 +239,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>직원구분코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PJT_POS_C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -263,15 +247,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PJT_JG_C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>직군코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PJT_DUTY_C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -412,10 +388,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>사원부서코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>프로젝트</t>
     </r>
@@ -463,10 +435,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기관 코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -541,17 +509,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 업무 분류 코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PJT_ST_C</t>
-  </si>
-  <si>
-    <t>프로젝트 상태 코드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PJT_CMT_START</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -588,19 +545,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>LOGIN_FAIL_COUNT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인 실패 카운트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST_ACCESS_DATE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -627,14 +576,6 @@
   <si>
     <t xml:space="preserve">A001: 사원, A002: 주임, A003: 대리, 
 A004: 과장, A005차장 A006:부장,A007:이사, A008:상무, A009:전무, A010: 대표이사 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C01: 개발 C02: 영업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D01: 팀원, D02: 팀장</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -731,31 +672,85 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>LOGIN_DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOIN_DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인 날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>회원 등록일</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EMP_NO           </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EMP_EMAIL        </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGIN_DATE       </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JOIN_DATE        </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGIN_FAIL_COUNT </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LIST_ACCESS_DATE </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PJT_DUTY_C       </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PJT_JG_C         </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EMP_AUTH         </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등급</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PJT_ST_C      </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,8 +908,15 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -943,6 +945,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1073,7 +1081,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1223,18 +1231,15 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1270,6 +1275,25 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1627,16 +1651,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="61"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="41" t="s">
         <v>3</v>
       </c>
@@ -1645,15 +1669,15 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="61">
         <v>44211</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
@@ -1662,44 +1686,44 @@
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="66"/>
+      <c r="H3" s="65"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
@@ -1770,7 +1794,7 @@
         <v>50</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -1815,10 +1839,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EAF6CC-F066-4611-85AE-56D407ABC086}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1838,16 +1862,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="61"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="41" t="s">
         <v>3</v>
       </c>
@@ -1856,15 +1880,15 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="61">
         <v>44211</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
@@ -1873,44 +1897,44 @@
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="66"/>
+      <c r="H3" s="65"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
@@ -1938,14 +1962,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6">
+    <row r="7" spans="1:11" ht="31.2">
       <c r="A7" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="42" t="s">
+        <v>23</v>
+      </c>
       <c r="D7" s="12" t="s">
         <v>24</v>
       </c>
@@ -1953,17 +1979,21 @@
       <c r="F7" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="31.2">
+      <c r="G7" s="42">
+        <v>4</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" ht="46.8">
       <c r="A8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="13" t="s">
         <v>37</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>23</v>
@@ -1971,115 +2001,15 @@
       <c r="D8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="42">
-        <v>3</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" ht="17.399999999999999">
-      <c r="A9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="42">
-        <v>3</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" ht="46.8">
-      <c r="A10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="41">
-        <v>3</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.6">
-      <c r="A11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="41">
-        <v>3</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.6">
-      <c r="A12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="41">
-        <v>3</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>123</v>
+      <c r="G8" s="41">
+        <v>4</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2033,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -2123,16 +2053,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="61"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="41" t="s">
         <v>3</v>
       </c>
@@ -2141,15 +2071,15 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="61">
         <v>44211</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
@@ -2158,44 +2088,44 @@
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="66"/>
+      <c r="G3" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="65"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
@@ -2225,10 +2155,10 @@
     </row>
     <row r="7" spans="1:11" ht="15.6">
       <c r="A7" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>23</v>
@@ -2241,22 +2171,20 @@
         <v>25</v>
       </c>
       <c r="G7" s="41">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17.399999999999999">
       <c r="A8" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>23</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C8" s="42"/>
       <c r="D8" s="12" t="s">
         <v>24</v>
       </c>
@@ -2265,24 +2193,22 @@
         <v>25</v>
       </c>
       <c r="G8" s="41">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="17.399999999999999">
       <c r="A9" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>23</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C9" s="42"/>
       <c r="D9" s="12" t="s">
         <v>24</v>
       </c>
@@ -2291,20 +2217,20 @@
         <v>25</v>
       </c>
       <c r="G9" s="41">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" ht="15.6">
       <c r="A10" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>23</v>
@@ -2317,10 +2243,10 @@
         <v>25</v>
       </c>
       <c r="G10" s="41">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6">
@@ -2440,11 +2366,361 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18931DC6-D2E8-4E59-846A-14FB790C9A06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC5EAB2-DADE-41E9-ACFA-9FC4AF766C00}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="2" width="24.59765625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="8.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.59765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="21.3984375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="60"/>
+      <c r="H1" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.399999999999999">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="61">
+        <v>44211</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="65"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.6">
+      <c r="A8" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.6">
+      <c r="A9" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="42">
+        <v>100</v>
+      </c>
+      <c r="H9" s="45"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6">
+      <c r="A10" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="42">
+        <v>20</v>
+      </c>
+      <c r="H10" s="45"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A11" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="42">
+        <v>20</v>
+      </c>
+      <c r="H11" s="45"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6">
+      <c r="A12" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="34">
+        <v>20</v>
+      </c>
+      <c r="H12" s="36"/>
+    </row>
+    <row r="13" spans="1:11" ht="17.399999999999999">
+      <c r="A13" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="45"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" ht="17.399999999999999">
+      <c r="A14" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="42">
+        <v>10</v>
+      </c>
+      <c r="H14" s="48"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.6">
+      <c r="A15" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="41">
+        <v>3</v>
+      </c>
+      <c r="H15" s="48"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.6">
+      <c r="A16" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="42">
+        <v>3</v>
+      </c>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="1:8" ht="17.399999999999999">
+      <c r="A17" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="44"/>
+      <c r="F17" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="42">
+        <v>5</v>
+      </c>
+      <c r="H17" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18931DC6-D2E8-4E59-846A-14FB790C9A06}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -2464,16 +2740,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="61"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="41" t="s">
         <v>3</v>
       </c>
@@ -2482,15 +2758,15 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="61">
         <v>44211</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
@@ -2499,56 +2775,56 @@
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="C3" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="66"/>
+      <c r="G3" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="65"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+        <v>54</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
@@ -2578,10 +2854,10 @@
     </row>
     <row r="8" spans="1:11" ht="15.6">
       <c r="A8" s="15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>23</v>
@@ -2590,22 +2866,20 @@
         <v>24</v>
       </c>
       <c r="E8" s="16"/>
-      <c r="F8" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="16">
-        <v>7</v>
-      </c>
+      <c r="F8" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="16"/>
       <c r="H8" s="15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6">
       <c r="A9" s="17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>24</v>
@@ -2615,16 +2889,16 @@
         <v>25</v>
       </c>
       <c r="G9" s="21">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:11" ht="15.6">
       <c r="A10" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="46" t="s">
@@ -2635,16 +2909,16 @@
         <v>25</v>
       </c>
       <c r="G10" s="42">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:11" ht="17.399999999999999">
       <c r="A11" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>23</v>
@@ -2657,18 +2931,18 @@
         <v>25</v>
       </c>
       <c r="G11" s="42">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H11" s="51" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17.399999999999999">
       <c r="A12" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42" t="s">
@@ -2679,7 +2953,7 @@
         <v>25</v>
       </c>
       <c r="G12" s="42">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H12" s="43"/>
       <c r="J12" s="10"/>
@@ -2687,10 +2961,10 @@
     </row>
     <row r="13" spans="1:11" ht="15.6">
       <c r="A13" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="42" t="s">
@@ -2701,16 +2975,16 @@
         <v>25</v>
       </c>
       <c r="G13" s="42">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:11" ht="15.6">
       <c r="A14" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12" t="s">
@@ -2718,514 +2992,58 @@
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="G14" s="42">
         <v>10</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="31.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="31.2">
+      <c r="A15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="42">
+        <v>4</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="46.8">
       <c r="A16" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>83</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C16" s="42"/>
       <c r="D16" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="40" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="42">
         <v>3</v>
       </c>
-      <c r="H16" s="45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="46.8">
-      <c r="A17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="42">
-        <v>3</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B4:H4"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD8CE3D-BEFE-4BB1-BEB7-EFB1EDD585E6}">
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="2" width="24.59765625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="8.59765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.59765625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="39.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="21.3984375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.399999999999999">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="62">
-        <v>44211</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="66"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.6">
-      <c r="A8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="42">
-        <v>11</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.6">
-      <c r="A9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="42">
-        <v>3</v>
-      </c>
-      <c r="H9" s="48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.6">
-      <c r="A10" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="41">
-        <v>3</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.6">
-      <c r="A11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="41">
-        <v>3</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.6">
-      <c r="A12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="42">
-        <v>50</v>
-      </c>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6">
-      <c r="A13" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="42">
-        <v>50</v>
-      </c>
-      <c r="H13" s="50"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.6">
-      <c r="A14" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="29">
-        <v>80</v>
-      </c>
-      <c r="H14" s="30"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.6">
-      <c r="A15" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="29">
-        <v>10</v>
-      </c>
-      <c r="H15" s="30"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.6">
-      <c r="A16" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="42">
-        <v>10</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A17" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="42">
-        <v>10</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.6">
-      <c r="A18" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="42">
-        <v>1</v>
-      </c>
-      <c r="H18" s="45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="17.399999999999999">
-      <c r="A19" s="11"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11" ht="17.399999999999999">
-      <c r="A20" s="11"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.6">
-      <c r="A21" s="11"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="45"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.6">
-      <c r="A22" s="11"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="45"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.6">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="45"/>
+      <c r="H16" s="37" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3245,11 +3063,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC5EAB2-DADE-41E9-ACFA-9FC4AF766C00}">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD8CE3D-BEFE-4BB1-BEB7-EFB1EDD585E6}">
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -3258,7 +3076,7 @@
     <col min="3" max="5" width="8.59765625" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.59765625" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.59765625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="30.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="39.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
     <col min="10" max="10" width="21.3984375" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.69921875" style="2" bestFit="1" customWidth="1"/>
@@ -3269,16 +3087,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="61"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="41" t="s">
         <v>3</v>
       </c>
@@ -3287,15 +3105,15 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="61">
         <v>44211</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
@@ -3305,55 +3123,55 @@
         <v>6</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+        <v>70</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" s="66"/>
+        <v>71</v>
+      </c>
+      <c r="H3" s="65"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+        <v>54</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
@@ -3382,180 +3200,186 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.6">
-      <c r="A8" s="15" t="s">
-        <v>61</v>
+      <c r="A8" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="16">
-        <v>7</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>63</v>
+      <c r="G8" s="42">
+        <v>50</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.6">
-      <c r="A9" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="47" t="s">
+      <c r="A9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="45"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="42">
+        <v>50</v>
+      </c>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:11" ht="15.6">
-      <c r="A10" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="47" t="s">
+      <c r="A10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="45"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A11" s="31" t="s">
-        <v>110</v>
+      <c r="E10" s="44"/>
+      <c r="F10" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="42">
+        <v>50</v>
+      </c>
+      <c r="H10" s="50"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6">
+      <c r="A11" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="45"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+        <v>116</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="29">
+        <v>80</v>
+      </c>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:11" ht="15.6">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="26" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="36"/>
-    </row>
-    <row r="13" spans="1:11" ht="17.399999999999999">
-      <c r="A13" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+        <v>80</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="29">
+        <v>10</v>
+      </c>
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.6">
+      <c r="A13" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="33"/>
       <c r="F13" s="40" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="42">
-        <v>10</v>
-      </c>
-      <c r="H13" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" ht="17.399999999999999">
-      <c r="A14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A14" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="B14" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="40" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="42">
-        <v>3</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>123</v>
+        <v>50</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="15.6">
-      <c r="A15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="A15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="40" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="42">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.6">
-      <c r="A16" s="11" t="s">
-        <v>43</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17.399999999999999">
+      <c r="A16" s="74" t="s">
+        <v>132</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>24</v>
@@ -3565,33 +3389,13 @@
         <v>25</v>
       </c>
       <c r="G16" s="41">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.6">
-      <c r="A17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="42">
-        <v>10</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>35</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3612,10 +3416,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADC51C8-2D1F-423D-B730-F3E91284B20C}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -3635,16 +3439,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="61"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="41" t="s">
         <v>3</v>
       </c>
@@ -3653,15 +3457,15 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="61">
         <v>44211</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
@@ -3670,56 +3474,56 @@
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="C3" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="H3" s="66"/>
+      <c r="G3" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="65"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+        <v>54</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
@@ -3749,13 +3553,13 @@
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>24</v>
@@ -3770,14 +3574,14 @@
       <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:11" ht="15.6">
-      <c r="A9" s="54" t="s">
-        <v>61</v>
+      <c r="A9" s="53" t="s">
+        <v>55</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>24</v>
@@ -3792,14 +3596,14 @@
       <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:11" ht="17.399999999999999">
-      <c r="A10" s="54" t="s">
-        <v>66</v>
+      <c r="A10" s="53" t="s">
+        <v>60</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>24</v>
@@ -3812,195 +3616,95 @@
         <v>30</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.6">
-      <c r="A11" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="A11" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="42">
         <v>3</v>
       </c>
-      <c r="H11" s="48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.6">
-      <c r="A12" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>83</v>
-      </c>
+      <c r="H11" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.399999999999999">
+      <c r="A12" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="23"/>
       <c r="D12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="40" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="42">
-        <v>3</v>
-      </c>
-      <c r="H12" s="45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="17.399999999999999">
-      <c r="A13" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>83</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.6">
+      <c r="A13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="40"/>
       <c r="D13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="40" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="42">
         <v>10</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" ht="17.399999999999999">
-      <c r="A14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>83</v>
-      </c>
+      <c r="H13" s="45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.6">
+      <c r="A14" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="40"/>
       <c r="D14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="40" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="42">
-        <v>3</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6">
-      <c r="A15" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="34">
-        <v>3</v>
-      </c>
-      <c r="H15" s="48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.6">
-      <c r="A16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="41">
-        <v>3</v>
-      </c>
-      <c r="H16" s="48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.6">
-      <c r="A17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="42">
-        <v>10</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.6">
-      <c r="A18" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="42">
         <v>8</v>
       </c>
-      <c r="H18" s="45" t="s">
-        <v>107</v>
+      <c r="H14" s="45" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
